--- a/donaciones.xlsx
+++ b/donaciones.xlsx
@@ -12,24 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Donacion Monetaria</t>
-  </si>
-  <si>
-    <t>Donacion Material</t>
-  </si>
-  <si>
-    <t>Ropa</t>
-  </si>
-  <si>
-    <t>Evento Monetario</t>
-  </si>
-  <si>
-    <t>Evento Material</t>
-  </si>
-  <si>
-    <t>Alimentos</t>
+    <t>Donación de libros</t>
   </si>
 </sst>
 </file>
@@ -74,7 +59,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -84,33 +69,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
